--- a/experiment result/64_0.5_40_zs10_kappa_lp.xlsx
+++ b/experiment result/64_0.5_40_zs10_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03336961097283051</v>
+        <v>0.006934833113787418</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04449522499485181</v>
+        <v>0.00302650461292576</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07255900528355794</v>
+        <v>0.008947475694583517</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05191021074550924</v>
+        <v>0.01078364537767643</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03454014972525616</v>
+        <v>0.003969671132234374</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0628732260133075</v>
+        <v>0.01020025848229223</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0490644353412827</v>
+        <v>0.005741503567178681</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03687195035970813</v>
+        <v>0.00783626976896239</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03016158878114642</v>
+        <v>0.007938946200038698</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0497367892562194</v>
+        <v>0.008096558210638781</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03754973895117633</v>
+        <v>0.01061142724418139</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0664650121114764</v>
+        <v>0.02126866549060841</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04249198133496927</v>
+        <v>0.005798741912926406</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07863033020210211</v>
+        <v>0.005817344418137889</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04559797934925262</v>
+        <v>0.006097877632664269</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05795303514639154</v>
+        <v>0.005698604022307563</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06956166530331502</v>
+        <v>0.01481738953210014</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03149932593983241</v>
+        <v>0.0007780054351851031</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03841359328731031</v>
+        <v>0.01088084294053875</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05842598171951413</v>
+        <v>0.005795618725117649</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03673727756160338</v>
+        <v>0.005613676829116787</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.04060534693562981</v>
+        <v>0.005015097019365739</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05559447470944517</v>
+        <v>0.01227840034732171</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0245382804617118</v>
+        <v>0.004331284798163875</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03268157311851905</v>
+        <v>0.006693289636848903</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06760071322729717</v>
+        <v>0.01587014406309717</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.04887738671868581</v>
+        <v>0.0128386404821623</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.04669234503343423</v>
+        <v>0.01413788473261159</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.04293463979166947</v>
+        <v>0.01461345589058784</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02917358161085185</v>
+        <v>0.005514737834558392</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02089396437301385</v>
+        <v>0.003563282163836214</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.06604594079818223</v>
+        <v>0.003491464146137849</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08455659692971397</v>
+        <v>0.01051280135577537</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03130081309601402</v>
+        <v>0.0008970947285761866</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0351871047865998</v>
+        <v>0.007989925665311124</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.05461679926183259</v>
+        <v>0.01139856534385751</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.04552980852659221</v>
+        <v>0.004309325058628116</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.04416352162062095</v>
+        <v>0.003552185583186916</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03596677915124821</v>
+        <v>0.009389296044609665</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04446856110663914</v>
+        <v>0.01144856838104528</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.06441916538213714</v>
+        <v>0.01374273629182602</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.04885078888746534</v>
+        <v>0.008028539239942133</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.03983180989077927</v>
+        <v>0.007694701257821709</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.04193295768555001</v>
+        <v>0.004213373185914953</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.05109347538462328</v>
+        <v>0.007522542797780233</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.05894734757450654</v>
+        <v>0.009406115734892967</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.08504683267822484</v>
+        <v>0.01492868515375019</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02825584766264602</v>
+        <v>0.001611874306292198</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.04340903883872434</v>
+        <v>0.006676218424396252</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02785410718866709</v>
+        <v>0.002549123713460913</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.04949686001173962</v>
+        <v>0.01502252332766829</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.07001728570052793</v>
+        <v>0.01146177056312575</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01712760891287235</v>
+        <v>7.214709346227825e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.03537876058868929</v>
+        <v>0.003302206283788284</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06565158066636088</v>
+        <v>0.004585547642645481</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06078640907901968</v>
+        <v>0.009246871819989325</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.05399647916809092</v>
+        <v>0.007204332928176589</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.05355564440971539</v>
+        <v>0.004840424029398318</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06407644570000497</v>
+        <v>0.01095748850488398</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.05654843839217037</v>
+        <v>0.003873061735164496</v>
       </c>
     </row>
   </sheetData>
